--- a/CashFlow/PPL_cashflow.xlsx
+++ b/CashFlow/PPL_cashflow.xlsx
@@ -746,19 +746,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1365000000.0</v>
+        <v>-17000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1336000000.0</v>
+        <v>-43000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>975000000.0</v>
+        <v>-39000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>630000000.0</v>
+        <v>-44000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>341000000.0</v>
+        <v>-26000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1000000.0</v>
@@ -1020,19 +1020,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10000000.0</v>
+        <v>3466000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4000000.0</v>
+        <v>3457000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>78000000.0</v>
+        <v>2730000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2000000.0</v>
+        <v>1815000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>113000000.0</v>
+        <v>1030000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>201000000.0</v>
